--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-224949.7147478309</v>
+        <v>-226837.2962642328</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>636115.7539276977</v>
+        <v>152383.7747216743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>361.9524275258421</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>43.43098213617385</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>128.7835007017901</v>
+        <v>52.4736908254684</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>150.4006610315699</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>124.5226615100437</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>33.80998328326088</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>118.9283458032787</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>31.95066115576652</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>203.7839120701169</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>86.11283245544996</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>112.2638403784901</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465713</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>7.406417419879557</v>
+        <v>123.7878360930503</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>167.5142106324307</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>192.904276320865</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>89.27741646322671</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>138.0074638802454</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>39.20823695210727</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>146.2787299119458</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>183.1796758467002</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>15.4146732340262</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>123.377125537976</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>75.71276588041282</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.522546109383214</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801197</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437405</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>77.92206006422872</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897906</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463091</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3910,7 +3910,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789547</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1571.689018870909</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="C2" t="n">
-        <v>1202.726501930497</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="D2" t="n">
-        <v>844.4608033237469</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>676.1879456017195</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>669.2424448525161</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>251.278636750703</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.288858935031</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y2" t="n">
-        <v>1958.288858935031</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,16 +4413,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.0273259635867</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C4" t="n">
-        <v>184.0273259635867</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="D4" t="n">
-        <v>184.0273259635867</v>
+        <v>106.9467099268982</v>
       </c>
       <c r="E4" t="n">
-        <v>184.0273259635867</v>
+        <v>106.9467099268982</v>
       </c>
       <c r="F4" t="n">
-        <v>184.0273259635867</v>
+        <v>106.9467099268982</v>
       </c>
       <c r="G4" t="n">
-        <v>184.0273259635867</v>
+        <v>106.9467099268982</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4522,16 +4522,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>184.0273259635867</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.0273259635867</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2090.6186503862</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.656133445788</v>
+        <v>1469.698544874887</v>
       </c>
       <c r="D5" t="n">
-        <v>1721.656133445788</v>
+        <v>1111.432846268137</v>
       </c>
       <c r="E5" t="n">
-        <v>1335.867880847544</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>924.8819760579361</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>506.9181679561229</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>179.7234479921258</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.6186503862</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.6186503862</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6911546495019</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="C7" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>380.6911546495019</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>380.6911546495019</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X7" t="n">
-        <v>380.6911546495019</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.6911546495019</v>
+        <v>224.4233909876363</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1241.158393318536</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2315.129267908032</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1984.066380564461</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1631.297725294347</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1631.297725294347</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1241.158393318536</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,10 +4884,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.9553738610024</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>288.8387344486666</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>140.9256408662735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>140.9256408662735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>140.9256408662735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>140.9256408662735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610024</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610024</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610024</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,40 +5024,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>327.180197328635</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M12" t="n">
-        <v>808.8370773579852</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.699705022018</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.1830073829237</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550168</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>245.1301850426811</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,16 +5200,16 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
         <v>1283.483062980063</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W13" t="n">
-        <v>1012.965137424471</v>
+        <v>1008.118460638033</v>
       </c>
       <c r="X13" t="n">
-        <v>784.9755865264539</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="Y13" t="n">
-        <v>564.1830073829237</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5270,25 +5270,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>334.2881267578673</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>334.2881267578673</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M15" t="n">
-        <v>334.2881267578673</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.699705022018</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.1598612984388</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C16" t="n">
-        <v>394.223678370532</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1329.709997191811</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1105.924581981316</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609662</v>
+        <v>1105.924581981316</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609662</v>
+        <v>1105.924581981316</v>
       </c>
       <c r="W16" t="n">
-        <v>791.1494121964561</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="X16" t="n">
-        <v>563.1598612984388</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.1598612984388</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5513,7 +5513,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>417.5524109899876</v>
+        <v>2019.669423557258</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>2364.190079194876</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.223678370532</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.063975947119</v>
@@ -5686,7 +5686,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1408.737062009188</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1184.951646798694</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="V19" t="n">
-        <v>1024.654273242319</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="W19" t="n">
-        <v>1024.654273242319</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X19" t="n">
-        <v>796.6647223443017</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y19" t="n">
-        <v>575.8721432007716</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028587</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M21" t="n">
-        <v>323.6581146605672</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.069692924718</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2459100858521</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2459100858521</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1151.239967633105</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>862.1113288466634</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>607.4268406407766</v>
+        <v>844.0280401273995</v>
       </c>
       <c r="W22" t="n">
-        <v>318.0096706038159</v>
+        <v>844.0280401273995</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>616.0384892293822</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2459100858521</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6008,13 +6008,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>147.7932167150698</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>147.7932167150698</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>761.6902864719584</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6581146605672</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924718</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>657.1994242851238</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>657.1994242851238</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>1059.640468258894</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>1059.640468258894</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>1059.640468258894</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>838.8478891153635</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,19 +6221,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,31 +6242,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028583</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028583</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605672</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N27" t="n">
-        <v>1128.069692924718</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>843.8929204411535</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028586</v>
@@ -6391,13 +6391,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1374.292911428634</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1150.507496218139</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1150.507496218139</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V28" t="n">
-        <v>895.8230080122524</v>
+        <v>1133.310090478114</v>
       </c>
       <c r="W28" t="n">
-        <v>895.8230080122524</v>
+        <v>843.8929204411535</v>
       </c>
       <c r="X28" t="n">
-        <v>667.833457114235</v>
+        <v>843.8929204411535</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.0408779707049</v>
+        <v>843.8929204411535</v>
       </c>
     </row>
     <row r="29">
@@ -6464,10 +6464,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,10 +6479,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M30" t="n">
-        <v>629.3975440735812</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.809122337732</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.272883640391</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>561.8619021198737</v>
+        <v>439.5324299542187</v>
       </c>
       <c r="C31" t="n">
-        <v>448.6865844733377</v>
+        <v>326.3571123076825</v>
       </c>
       <c r="D31" t="n">
-        <v>448.6865844733377</v>
+        <v>326.3571123076825</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723155</v>
+        <v>326.3571123076825</v>
       </c>
       <c r="F31" t="n">
-        <v>265.405273955776</v>
+        <v>326.3571123076825</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569674</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667513</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981895</v>
+        <v>902.6804289818936</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652486</v>
+        <v>730.451743365247</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503089</v>
+        <v>565.4200295030876</v>
       </c>
     </row>
     <row r="32">
@@ -6680,43 +6680,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>843.9587363963142</v>
       </c>
       <c r="N33" t="n">
-        <v>2103.272883640391</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525404</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649697</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6932,19 +6932,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6956,10 +6956,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7090,22 +7090,22 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254951</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,13 +7117,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7199,25 +7199,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605672</v>
+        <v>549.3729734629519</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028647</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823793</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>980.7133327789488</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,22 +7801,22 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525397</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9009,10 +9009,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9720,10 +9720,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>370.8623401849288</v>
+        <v>390.1682609186328</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>276.320473496907</v>
       </c>
       <c r="N33" t="n">
-        <v>178.3913131276568</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849288</v>
+        <v>239.9473834942198</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11151,16 +11151,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11397,7 +11397,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>279.1165809167114</v>
+        <v>162.7351622435407</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>30.40659935117253</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>93.61872201572601</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,16 +23893,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>108.6433935203765</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>114.1301794435826</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>109.4072360661051</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>75.26883114644347</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>103.0576765518771</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>236.7229700898018</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>74.54368444562728</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>176.4248774434152</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>121.1061774439969</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965516</v>
+        <v>93.41221638965528</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.2307060180121</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437417</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>33.3682517705918</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897893</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.334310688136611e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.530959285</v>
       </c>
       <c r="D2" t="n">
         <v>246312.5309592849</v>
@@ -26329,13 +26329,13 @@
         <v>234617.4358426252</v>
       </c>
       <c r="H2" t="n">
-        <v>234617.4358426252</v>
+        <v>234617.4358426251</v>
       </c>
       <c r="I2" t="n">
         <v>234617.4358426252</v>
       </c>
       <c r="J2" t="n">
-        <v>234617.4358426251</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="K2" t="n">
         <v>244093.2824071618</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,31 +26381,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284576</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008668</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284577</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26418,43 +26418,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758877</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758771</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758629</v>
-      </c>
       <c r="H4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477245</v>
+        <v>18952.41620477241</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189641</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189639</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189635</v>
@@ -26488,10 +26488,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-565573.565499288</v>
+        <v>-565573.5654992883</v>
       </c>
       <c r="C6" t="n">
-        <v>24394.31371525637</v>
+        <v>24394.31371525646</v>
       </c>
       <c r="D6" t="n">
         <v>24394.3137152564</v>
       </c>
       <c r="E6" t="n">
-        <v>-383317.7202735633</v>
+        <v>-383415.1793995356</v>
       </c>
       <c r="F6" t="n">
-        <v>141842.3162033327</v>
+        <v>141744.8570773605</v>
       </c>
       <c r="G6" t="n">
-        <v>141842.3162033327</v>
+        <v>141744.8570773606</v>
       </c>
       <c r="H6" t="n">
-        <v>141842.3162033326</v>
+        <v>141744.8570773602</v>
       </c>
       <c r="I6" t="n">
-        <v>141842.3162033327</v>
+        <v>141744.8570773607</v>
       </c>
       <c r="J6" t="n">
-        <v>-34580.90298926024</v>
+        <v>-34678.36211523238</v>
       </c>
       <c r="K6" t="n">
-        <v>84350.05236932079</v>
+        <v>84331.55863138655</v>
       </c>
       <c r="L6" t="n">
         <v>115047.9374064965</v>
       </c>
       <c r="M6" t="n">
-        <v>-9410.171026473879</v>
+        <v>-9410.171026473836</v>
       </c>
       <c r="N6" t="n">
-        <v>125390.8442073634</v>
+        <v>125390.8442073633</v>
       </c>
       <c r="O6" t="n">
-        <v>125390.8442073634</v>
+        <v>125390.8442073635</v>
       </c>
       <c r="P6" t="n">
-        <v>81228.23890451761</v>
+        <v>81228.23890451771</v>
       </c>
     </row>
   </sheetData>
@@ -26710,16 +26710,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,7 +26753,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010835</v>
+        <v>12.92863350108358</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>19.97794254641968</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>280.4917906281833</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>27.38738814000507</v>
+        <v>103.6971980163268</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>231.5297090406919</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>27.40865473481755</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>133.436837815367</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>133.2092975205493</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>333.322230615241</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>47.44025543817241</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>48.85278933688826</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>112.7712650795942</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.122154304136833e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30034,13 +30034,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,22 +31118,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31379,25 +31379,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653282</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,31 +31838,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>162.9510712117661</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>320.3934755282637</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -32075,28 +32075,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>112.8418941815596</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>289.3543893725101</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32312,31 +32312,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>415.1600725388957</v>
       </c>
       <c r="N18" t="n">
-        <v>380.4309478731437</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,19 +32540,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -32561,25 +32561,25 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>63.43474313802659</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32731,7 +32731,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
         <v>76.06970478104648</v>
@@ -32786,13 +32786,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>51.83358653311031</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -32801,10 +32801,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -33029,7 +33029,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -33038,10 +33038,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33260,22 +33260,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>213.9849829127209</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>107.9252528799043</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33284,7 +33284,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33497,31 +33497,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,22 +33743,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>100.5826050876808</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33992,7 +33992,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34132,7 +34132,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041492</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
         <v>526.796267130444</v>
@@ -34214,13 +34214,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>320.3934755282637</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34229,7 +34229,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34454,22 +34454,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>209.9396523866412</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>486.5221010397477</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>668.3941377884839</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>239.4656922197792</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>612.9254192004917</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502048</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>738.7311023668773</v>
       </c>
       <c r="N18" t="n">
-        <v>728.431610133364</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>228.7283062629105</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>411.4354053982468</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.08699520685246</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>228.7283062629105</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>228.7283062629105</v>
+        <v>248.0342269966145</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>537.5560127407025</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>455.9259151401246</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412259</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>134.1864395748886</v>
       </c>
       <c r="N33" t="n">
-        <v>47.04960104432353</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,22 +37391,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>285.0709663132877</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629105</v>
+        <v>97.81334957220149</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415663</v>
@@ -37640,7 +37640,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686864</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303334</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37862,25 +37862,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>643.9645053562452</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>533.5106822146228</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
